--- a/input/general/NUTS2_from_Model.xlsx
+++ b/input/general/NUTS2_from_Model.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7156A5C3-0B67-464B-941D-D00F24C85017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE208ACF-C550-4899-8C41-5CAAAC8EFD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="974">
   <si>
     <t>BE10</t>
   </si>
@@ -3029,9 +3029,6 @@
     </r>
   </si>
   <si>
-    <t>BA01</t>
-  </si>
-  <si>
     <t>Bosnien-Herzegowina</t>
   </si>
   <si>
@@ -3159,6 +3156,12 @@
   </si>
   <si>
     <t>[1]</t>
+  </si>
+  <si>
+    <t>BA00</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
   </si>
 </sst>
 </file>
@@ -3665,36 +3668,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="50.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.453125"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>901</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>574</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>575</v>
       </c>
@@ -3722,7 +3724,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>576</v>
       </c>
@@ -3736,7 +3738,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>358</v>
       </c>
@@ -3750,7 +3752,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>360</v>
       </c>
@@ -3764,7 +3766,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>362</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>364</v>
       </c>
@@ -3792,7 +3794,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>366</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>368</v>
       </c>
@@ -3820,7 +3822,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>370</v>
       </c>
@@ -3834,7 +3836,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>372</v>
       </c>
@@ -3848,7 +3850,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>374</v>
       </c>
@@ -3862,21 +3864,21 @@
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C14" t="s">
+        <v>930</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="C14" t="s">
-        <v>931</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -3918,7 +3920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -3932,7 +3934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -3946,7 +3948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -3960,7 +3962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -3988,7 +3990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
@@ -4002,7 +4004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -4016,7 +4018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
@@ -4030,7 +4032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -4047,7 +4049,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
@@ -4064,7 +4066,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -4098,7 +4100,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -4115,7 +4117,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>565</v>
       </c>
@@ -4146,7 +4148,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>566</v>
       </c>
@@ -4160,7 +4162,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>567</v>
       </c>
@@ -4174,7 +4176,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>568</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>569</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>570</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>571</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>306</v>
       </c>
@@ -4244,7 +4246,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
@@ -4295,7 +4297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>40</v>
       </c>
@@ -4312,7 +4314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -4329,7 +4331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -4346,7 +4348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
@@ -4380,7 +4382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>62</v>
       </c>
@@ -4408,7 +4410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>64</v>
       </c>
@@ -4422,7 +4424,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>66</v>
       </c>
@@ -4436,7 +4438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>68</v>
       </c>
@@ -4450,7 +4452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>70</v>
       </c>
@@ -4464,7 +4466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>72</v>
       </c>
@@ -4478,7 +4480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>74</v>
       </c>
@@ -4492,7 +4494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>76</v>
       </c>
@@ -4506,7 +4508,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>78</v>
       </c>
@@ -4520,7 +4522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>80</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>82</v>
       </c>
@@ -4548,7 +4550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>84</v>
       </c>
@@ -4562,7 +4564,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>908</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>86</v>
       </c>
@@ -4590,7 +4592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>88</v>
       </c>
@@ -4604,7 +4606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>90</v>
       </c>
@@ -4618,7 +4620,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>92</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>94</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>96</v>
       </c>
@@ -4660,7 +4662,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>98</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>100</v>
       </c>
@@ -4688,7 +4690,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>102</v>
       </c>
@@ -4702,7 +4704,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>104</v>
       </c>
@@ -4716,7 +4718,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>106</v>
       </c>
@@ -4730,7 +4732,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>108</v>
       </c>
@@ -4744,7 +4746,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>110</v>
       </c>
@@ -4758,7 +4760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>112</v>
       </c>
@@ -4772,7 +4774,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>114</v>
       </c>
@@ -4786,7 +4788,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>116</v>
       </c>
@@ -4800,7 +4802,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>118</v>
       </c>
@@ -4814,7 +4816,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>120</v>
       </c>
@@ -4828,7 +4830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>122</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>124</v>
       </c>
@@ -4856,7 +4858,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>126</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>128</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>130</v>
       </c>
@@ -4898,7 +4900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>132</v>
       </c>
@@ -4912,7 +4914,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>134</v>
       </c>
@@ -4926,7 +4928,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>50</v>
       </c>
@@ -4940,7 +4942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>52</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>54</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>56</v>
       </c>
@@ -4982,7 +4984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>58</v>
       </c>
@@ -4996,7 +4998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>136</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>144</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>146</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>148</v>
       </c>
@@ -5061,7 +5063,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>150</v>
       </c>
@@ -5078,7 +5080,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>152</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>154</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>156</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>158</v>
       </c>
@@ -5146,7 +5148,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>160</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>162</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>164</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>166</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>168</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>170</v>
       </c>
@@ -5245,7 +5247,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>172</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>174</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>176</v>
       </c>
@@ -5287,7 +5289,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>178</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>180</v>
       </c>
@@ -5315,7 +5317,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>182</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>184</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>186</v>
       </c>
@@ -5357,7 +5359,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>188</v>
       </c>
@@ -5371,7 +5373,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>190</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>192</v>
       </c>
@@ -5399,7 +5401,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>194</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>196</v>
       </c>
@@ -5427,7 +5429,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>198</v>
       </c>
@@ -5441,7 +5443,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>200</v>
       </c>
@@ -5455,7 +5457,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>202</v>
       </c>
@@ -5472,7 +5474,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>204</v>
       </c>
@@ -5489,7 +5491,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>206</v>
       </c>
@@ -5503,7 +5505,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>452</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>454</v>
       </c>
@@ -5531,7 +5533,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>456</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>458</v>
       </c>
@@ -5559,7 +5561,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>460</v>
       </c>
@@ -5573,7 +5575,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>208</v>
       </c>
@@ -5590,7 +5592,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>210</v>
       </c>
@@ -5604,10 +5606,10 @@
         <v>211</v>
       </c>
       <c r="E131" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>212</v>
       </c>
@@ -5621,10 +5623,10 @@
         <v>213</v>
       </c>
       <c r="E132" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>214</v>
       </c>
@@ -5638,10 +5640,10 @@
         <v>215</v>
       </c>
       <c r="E133" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>216</v>
       </c>
@@ -5655,10 +5657,10 @@
         <v>217</v>
       </c>
       <c r="E134" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>218</v>
       </c>
@@ -5672,10 +5674,10 @@
         <v>219</v>
       </c>
       <c r="E135" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>220</v>
       </c>
@@ -5689,10 +5691,10 @@
         <v>221</v>
       </c>
       <c r="E136" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>222</v>
       </c>
@@ -5706,10 +5708,10 @@
         <v>223</v>
       </c>
       <c r="E137" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>224</v>
       </c>
@@ -5723,10 +5725,10 @@
         <v>225</v>
       </c>
       <c r="E138" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>226</v>
       </c>
@@ -5740,10 +5742,10 @@
         <v>227</v>
       </c>
       <c r="E139" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>228</v>
       </c>
@@ -5757,10 +5759,10 @@
         <v>229</v>
       </c>
       <c r="E140" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>230</v>
       </c>
@@ -5774,10 +5776,10 @@
         <v>231</v>
       </c>
       <c r="E141" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>232</v>
       </c>
@@ -5791,10 +5793,10 @@
         <v>233</v>
       </c>
       <c r="E142" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>234</v>
       </c>
@@ -5808,10 +5810,10 @@
         <v>235</v>
       </c>
       <c r="E143" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>236</v>
       </c>
@@ -5825,10 +5827,10 @@
         <v>237</v>
       </c>
       <c r="E144" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>238</v>
       </c>
@@ -5842,10 +5844,10 @@
         <v>239</v>
       </c>
       <c r="E145" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>240</v>
       </c>
@@ -5859,10 +5861,10 @@
         <v>241</v>
       </c>
       <c r="E146" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>242</v>
       </c>
@@ -5876,10 +5878,10 @@
         <v>243</v>
       </c>
       <c r="E147" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>244</v>
       </c>
@@ -5893,10 +5895,10 @@
         <v>245</v>
       </c>
       <c r="E148" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>246</v>
       </c>
@@ -5910,10 +5912,10 @@
         <v>247</v>
       </c>
       <c r="E149" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>248</v>
       </c>
@@ -5927,10 +5929,10 @@
         <v>249</v>
       </c>
       <c r="E150" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>250</v>
       </c>
@@ -5944,10 +5946,10 @@
         <v>251</v>
       </c>
       <c r="E151" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>252</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>254</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>256</v>
       </c>
@@ -5989,7 +5991,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>258</v>
       </c>
@@ -6003,7 +6005,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>260</v>
       </c>
@@ -6017,7 +6019,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>262</v>
       </c>
@@ -6031,9 +6033,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>907</v>
@@ -6043,9 +6045,9 @@
       </c>
       <c r="D158" s="10"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>902</v>
@@ -6055,12 +6057,12 @@
       </c>
       <c r="D159" s="10"/>
       <c r="E159" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>907</v>
@@ -6070,9 +6072,9 @@
       </c>
       <c r="D160" s="10"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>907</v>
@@ -6082,7 +6084,7 @@
       </c>
       <c r="D161" s="10"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>316</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>318</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>320</v>
       </c>
@@ -6124,7 +6126,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>322</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>324</v>
       </c>
@@ -6152,7 +6154,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>326</v>
       </c>
@@ -6166,7 +6168,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>328</v>
       </c>
@@ -6180,7 +6182,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>330</v>
       </c>
@@ -6194,7 +6196,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>138</v>
       </c>
@@ -6208,7 +6210,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>140</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>142</v>
       </c>
@@ -6236,7 +6238,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>560</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>264</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>266</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>268</v>
       </c>
@@ -6290,7 +6292,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>270</v>
       </c>
@@ -6304,7 +6306,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>272</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>274</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>276</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>278</v>
       </c>
@@ -6360,7 +6362,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>280</v>
       </c>
@@ -6374,7 +6376,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>282</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>284</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>286</v>
       </c>
@@ -6416,7 +6418,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>288</v>
       </c>
@@ -6430,7 +6432,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>290</v>
       </c>
@@ -6444,7 +6446,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>292</v>
       </c>
@@ -6458,7 +6460,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>294</v>
       </c>
@@ -6472,7 +6474,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>296</v>
       </c>
@@ -6486,7 +6488,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>298</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>300</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>302</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>304</v>
       </c>
@@ -6542,22 +6544,22 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>864</v>
       </c>
       <c r="D195" s="10"/>
       <c r="E195" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>561</v>
       </c>
@@ -6571,7 +6573,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>310</v>
       </c>
@@ -6588,7 +6590,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>312</v>
       </c>
@@ -6605,7 +6607,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>314</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>308</v>
       </c>
@@ -6636,7 +6638,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>572</v>
       </c>
@@ -6650,7 +6652,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>573</v>
       </c>
@@ -6664,7 +6666,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>332</v>
       </c>
@@ -6678,7 +6680,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>334</v>
       </c>
@@ -6692,7 +6694,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>336</v>
       </c>
@@ -6706,7 +6708,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>338</v>
       </c>
@@ -6720,7 +6722,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>340</v>
       </c>
@@ -6734,7 +6736,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>342</v>
       </c>
@@ -6748,7 +6750,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>344</v>
       </c>
@@ -6762,7 +6764,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>346</v>
       </c>
@@ -6776,7 +6778,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>348</v>
       </c>
@@ -6790,7 +6792,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>350</v>
       </c>
@@ -6804,7 +6806,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>352</v>
       </c>
@@ -6818,7 +6820,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>354</v>
       </c>
@@ -6832,7 +6834,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>356</v>
       </c>
@@ -6846,9 +6848,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>903</v>
@@ -6858,10 +6860,10 @@
       </c>
       <c r="D216" s="11"/>
       <c r="E216" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>562</v>
       </c>
@@ -6875,9 +6877,9 @@
         <v>584</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>904</v>
@@ -6887,9 +6889,9 @@
       </c>
       <c r="D218" s="11"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>905</v>
@@ -6899,9 +6901,9 @@
       </c>
       <c r="D219" s="11"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>906</v>
@@ -6913,7 +6915,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>563</v>
       </c>
@@ -6927,7 +6929,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>564</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>376</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>378</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>380</v>
       </c>
@@ -6992,7 +6994,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>382</v>
       </c>
@@ -7009,7 +7011,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>384</v>
       </c>
@@ -7026,7 +7028,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>386</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>388</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>390</v>
       </c>
@@ -7077,7 +7079,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>392</v>
       </c>
@@ -7094,7 +7096,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>394</v>
       </c>
@@ -7111,7 +7113,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>396</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>398</v>
       </c>
@@ -7145,7 +7147,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>400</v>
       </c>
@@ -7162,7 +7164,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>402</v>
       </c>
@@ -7179,7 +7181,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>404</v>
       </c>
@@ -7196,7 +7198,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>406</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>408</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>410</v>
       </c>
@@ -7244,7 +7246,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>412</v>
       </c>
@@ -7258,7 +7260,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>414</v>
       </c>
@@ -7272,7 +7274,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>416</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>418</v>
       </c>
@@ -7300,7 +7302,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>420</v>
       </c>
@@ -7314,7 +7316,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>422</v>
       </c>
@@ -7328,7 +7330,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>424</v>
       </c>
@@ -7342,7 +7344,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>426</v>
       </c>
@@ -7356,7 +7358,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>428</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>430</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>432</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>434</v>
       </c>
@@ -7415,7 +7417,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>436</v>
       </c>
@@ -7429,7 +7431,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>438</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>577</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>578</v>
       </c>
@@ -7471,7 +7473,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>579</v>
       </c>
@@ -7485,7 +7487,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>580</v>
       </c>
@@ -7499,7 +7501,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>462</v>
       </c>
@@ -7513,7 +7515,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>464</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>466</v>
       </c>
@@ -7541,7 +7543,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>468</v>
       </c>
@@ -7555,7 +7557,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>470</v>
       </c>
@@ -7569,7 +7571,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>472</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>474</v>
       </c>
@@ -7597,7 +7599,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>476</v>
       </c>
@@ -7611,7 +7613,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>440</v>
       </c>
@@ -7625,7 +7627,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>442</v>
       </c>
@@ -7639,7 +7641,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>444</v>
       </c>
@@ -7653,7 +7655,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>446</v>
       </c>
@@ -7667,7 +7669,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>448</v>
       </c>
@@ -7681,7 +7683,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>450</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>478</v>
       </c>
@@ -7709,7 +7711,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>480</v>
       </c>
@@ -7723,7 +7725,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>482</v>
       </c>
@@ -7737,7 +7739,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>484</v>
       </c>
@@ -7751,7 +7753,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>486</v>
       </c>
@@ -7765,7 +7767,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>488</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>490</v>
       </c>
@@ -7793,7 +7795,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>492</v>
       </c>
@@ -7807,7 +7809,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>494</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>496</v>
       </c>
@@ -7835,7 +7837,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>498</v>
       </c>
@@ -7849,7 +7851,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>500</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>502</v>
       </c>
@@ -7877,7 +7879,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>504</v>
       </c>
@@ -7891,7 +7893,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>506</v>
       </c>
@@ -7905,7 +7907,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>508</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>510</v>
       </c>
@@ -7933,7 +7935,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>512</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>514</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>516</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>518</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>520</v>
       </c>
@@ -8003,7 +8005,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>522</v>
       </c>
@@ -8017,7 +8019,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>524</v>
       </c>
@@ -8031,7 +8033,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>526</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>528</v>
       </c>
@@ -8059,7 +8061,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>530</v>
       </c>
@@ -8073,7 +8075,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>532</v>
       </c>
@@ -8087,7 +8089,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>534</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>536</v>
       </c>
@@ -8115,7 +8117,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>538</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>540</v>
       </c>
@@ -8143,7 +8145,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>542</v>
       </c>
@@ -8157,7 +8159,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>544</v>
       </c>
@@ -8171,7 +8173,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>546</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>548</v>
       </c>
@@ -8199,7 +8201,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>550</v>
       </c>
@@ -8213,7 +8215,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>552</v>
       </c>
@@ -8227,7 +8229,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>554</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>556</v>
       </c>
@@ -8255,7 +8257,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>558</v>
       </c>
@@ -8280,31 +8282,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAB2899-7C3A-409B-A680-20EEA922FAE5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F1" t="s">
         <v>968</v>
       </c>
-      <c r="B1" t="s">
-        <v>972</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>970</v>
-      </c>
-      <c r="B3" t="s">
-        <v>971</v>
       </c>
     </row>
   </sheetData>
